--- a/data/EOBFC fines list 25_26.xlsx
+++ b/data/EOBFC fines list 25_26.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dofoe.boundarycreek\Documents\Python Output\EOBFC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dofoe.boundarycreek\Documents\python\EOBFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{788E27D4-0D2A-454F-9CD7-76EE63A154C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC084A5-6EFA-4CDE-AC46-0AD2F52BDA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,27 +653,32 @@
     </dxf>
   </dxfs>
   <tableStyles count="5">
-    <tableStyle name="GW1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="GW1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" size="0"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="GW2-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="GW2-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="wholeTable" size="0"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="firstRowStripe" dxfId="10"/>
       <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="GW3-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+    <tableStyle name="GW3-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="wholeTable" size="0"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="GW4-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+    <tableStyle name="GW4-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+      <tableStyleElement type="wholeTable" size="0"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="GW5-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+    <tableStyle name="GW5-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+      <tableStyleElement type="wholeTable" size="0"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -1057,7 +1062,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1178,10 +1183,10 @@
       <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12">
+      <c r="C3" s="12">
         <v>5</v>
       </c>
+      <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -4294,10 +4299,10 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -4317,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9" s="12">
         <v>2</v>
@@ -4344,7 +4349,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8">
